--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743870.5505813217</v>
+        <v>784180.4057267142</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889761</v>
+        <v>337002.2430554237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8139267.539434055</v>
+        <v>8121653.028417467</v>
       </c>
     </row>
     <row r="11">
@@ -665,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>206.1282486386881</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516666</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>46.17682916304294</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>3.833957768458453</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.14804664098575</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.3047561150635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3197306044667</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>329.7271827466205</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>109.7730171692782</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1695,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.5310119231965</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>80.60733582062343</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>153.8564357574052</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.1271626621471</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>20.92358286280551</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>376.0368885193218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>126.2798551468628</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>80.88877949312902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>376.5605518815539</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>14.44545687554183</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,28 +2478,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>17.36390763391871</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>33.50874194611519</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>11.44871811097188</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>190.6273628074115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2685,7 +2687,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U27" t="n">
         <v>225.8879277888686</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.63926978364023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>385.1561312802865</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>123.549265028247</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>120.4120358099646</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>95.60231281716867</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>340.0038720979775</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3266,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>199.3078717296134</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>280.1033070984083</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>74.53436060286485</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>91.82580793753523</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>59.53544153398409</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>49.7569678412159</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.1271626621471</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>323.9918595228958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>297.5234243323641</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.693200015577853</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>89.97874607638022</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>168.6816137320439</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.3178534391397</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>171.7498680634316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F2" t="n">
-        <v>122.6530896684844</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G2" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>755.8468033503452</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>512.3980267062451</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4716,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.8614515073789</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8614515073789</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117561</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117561</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613333</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110435</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>391.0900634393631</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>216.637034158236</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>67.70262449698478</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>67.70262449698478</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>67.70262449698478</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>398.8245784347747</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>659.4341920469246</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141743</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806666</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993074</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T9" t="n">
-        <v>880.4795283993074</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="U9" t="n">
-        <v>880.4795283993074</v>
+        <v>259.0600686093456</v>
       </c>
       <c r="V9" t="n">
-        <v>645.3274201675647</v>
+        <v>23.90796037760293</v>
       </c>
       <c r="W9" t="n">
-        <v>391.0900634393631</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="X9" t="n">
-        <v>391.0900634393631</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y9" t="n">
-        <v>391.0900634393631</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.98668255551287</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2323.103882821189</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733129</v>
@@ -5057,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018223</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018223</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018223</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942403</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F13" t="n">
-        <v>550.5654064942403</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>808.6937513590203</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C14" t="n">
-        <v>439.7312344186087</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X14" t="n">
-        <v>1198.833083334832</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y14" t="n">
-        <v>808.6937513590203</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961344</v>
@@ -5379,19 +5381,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1280.556556803303</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C17" t="n">
-        <v>911.5940398628911</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D17" t="n">
-        <v>553.3283412561407</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E17" t="n">
-        <v>553.3283412561407</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5516,10 +5518,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2541.738549849126</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="V17" t="n">
-        <v>2057.295728843236</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W17" t="n">
-        <v>2057.295728843236</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X17" t="n">
-        <v>2057.295728843236</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y17" t="n">
-        <v>1667.156396867425</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="18">
@@ -5571,22 +5573,22 @@
         <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>706.9940520217822</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>706.9940520217822</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>706.9940520217822</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>706.9940520217822</v>
       </c>
       <c r="U19" t="n">
-        <v>211.6471865296039</v>
+        <v>706.9940520217822</v>
       </c>
       <c r="V19" t="n">
-        <v>211.6471865296039</v>
+        <v>706.9940520217822</v>
       </c>
       <c r="W19" t="n">
-        <v>211.6471865296039</v>
+        <v>417.5768819848216</v>
       </c>
       <c r="X19" t="n">
-        <v>211.6471865296039</v>
+        <v>417.5768819848216</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.6471865296039</v>
+        <v>417.5768819848216</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1957.780595683986</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.818078743575</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D20" t="n">
-        <v>1230.552380136824</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E20" t="n">
-        <v>844.7641275385799</v>
+        <v>181.4983910596198</v>
       </c>
       <c r="F20" t="n">
-        <v>433.7782227489724</v>
+        <v>181.4983910596198</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>181.4983910596198</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>181.4983910596198</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>2344.380435748108</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y20" t="n">
-        <v>2344.380435748108</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J21" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J21" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2150.325450936866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2667.732171871844</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2667.732171871844</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>2378.315001834884</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X22" t="n">
-        <v>2150.325450936866</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y22" t="n">
-        <v>2150.325450936866</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1540.921096014692</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C23" t="n">
-        <v>1171.958579074281</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="D23" t="n">
-        <v>813.6928804675301</v>
+        <v>1231.081333027968</v>
       </c>
       <c r="E23" t="n">
-        <v>813.6928804675301</v>
+        <v>845.2930804297234</v>
       </c>
       <c r="F23" t="n">
-        <v>813.6928804675301</v>
+        <v>434.3071756401159</v>
       </c>
       <c r="G23" t="n">
-        <v>395.729072365717</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>68.53435240171984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014692</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X23" t="n">
-        <v>1540.921096014692</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y23" t="n">
-        <v>1540.921096014692</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,46 +6065,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064343</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064343</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2158906240412</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="F25" t="n">
-        <v>562.6765899837193</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220517</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1568.353113282533</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C26" t="n">
-        <v>1568.353113282533</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="D26" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
         <v>2520.971603332393</v>
@@ -6269,7 +6271,7 @@
         <v>2147.505845071313</v>
       </c>
       <c r="Y26" t="n">
-        <v>1954.952953346655</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,13 +6326,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
         <v>2289.884200196743</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>2118.55831063583</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>2118.55831063583</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1422.14692331494</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C29" t="n">
-        <v>1422.14692331494</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2572.351853615953</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X29" t="n">
-        <v>2198.886095354873</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y29" t="n">
-        <v>1808.746763379062</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>808.6937513590203</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C32" t="n">
-        <v>439.7312344186087</v>
+        <v>1723.514638661395</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1365.248940054644</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>979.4606874563999</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>568.4747826667924</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>150.5109745649793</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.898681660034</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X32" t="n">
-        <v>1585.432923398954</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y32" t="n">
-        <v>1195.293591423142</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>819.7159451700475</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E35" t="n">
-        <v>618.3948626148824</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1595.582677879089</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2248.366960976676</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C37" t="n">
-        <v>2173.079728044489</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>304.44469573888</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>146.6963231714101</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018223</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018223</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.159540120206</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y37" t="n">
-        <v>2248.366960976676</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1328.817756940316</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1718.957088916128</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1328.817756940316</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2180.667293341393</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C43" t="n">
-        <v>2180.667293341393</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D43" t="n">
-        <v>2170.876182214547</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.4871285526041</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2469.840903686825</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2180.667293341393</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>2180.667293341393</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>2180.667293341393</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>2180.667293341393</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>2180.667293341393</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>1122.952954307291</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7737,13 +7739,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.9958041606071</v>
+        <v>2066.718496146436</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X46" t="n">
-        <v>554.6442689908469</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y46" t="n">
-        <v>554.6442689908469</v>
+        <v>2248.366960976676</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>252.9329963465693</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>221.0467526719079</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>348.126654707812</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22635,10 +22637,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22680,10 +22682,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>26.67233851073721</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22692,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22835,16 +22837,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22917,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.8702581588526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901636</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>91.11718751665272</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>247.8610253924612</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>98.2793743957106</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.42908554841711</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.99007165458423</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>52.2031873256413</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>259.9580835091908</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>326.268709921088</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>20.55927705156634</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.70481751979023</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>8.199167092108798</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>37.74728150147314</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>25.65146109799848</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>54.0768422992092</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24181,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>37.22361813924107</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>137.4858593693194</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>128.0571403890125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>122.66214689568</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>343.2343235097111</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>195.610575848642</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.9453835684546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>28.62803874050849</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>225.691703689166</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>46.83478528866321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>228.3204599471885</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>9.237096619435533</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25154,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>182.6224983426484</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>69.13766161900475</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>92.71246049576298</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>43.13981385480299</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>305.7374502370234</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>85.20865395112233</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>56.01837628787177</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>30.69118209778719</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25679,22 +25681,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>72.20767634610496</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.9222730026345</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>44.98687571595801</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>238.1944320096675</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>53.95978732560556</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476112.7944668498</v>
+        <v>457060.9393513078</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>783970.2356123616</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26338,7 +26340,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525615</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26473,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26488,25 +26490,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657755</v>
+        <v>-4728.818284657777</v>
       </c>
       <c r="C6" t="n">
         <v>76040.61324689005</v>
       </c>
       <c r="D6" t="n">
-        <v>53633.11993467443</v>
+        <v>76040.61324688999</v>
       </c>
       <c r="E6" t="n">
-        <v>-229401.1248032532</v>
+        <v>-254526.861162675</v>
       </c>
       <c r="F6" t="n">
+        <v>178319.3128803212</v>
+      </c>
+      <c r="G6" t="n">
         <v>178319.3128803211</v>
-      </c>
-      <c r="G6" t="n">
-        <v>178319.3128803212</v>
       </c>
       <c r="H6" t="n">
         <v>178319.3128803212</v>
@@ -26543,22 +26545,22 @@
         <v>178319.3128803212</v>
       </c>
       <c r="J6" t="n">
-        <v>115259.370281215</v>
+        <v>115259.3702812149</v>
       </c>
       <c r="K6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="L6" t="n">
-        <v>172693.6706517955</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="M6" t="n">
-        <v>75885.19518968597</v>
+        <v>70345.95220626303</v>
       </c>
       <c r="N6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="O6" t="n">
-        <v>178319.3128803212</v>
+        <v>178319.3128803211</v>
       </c>
       <c r="P6" t="n">
         <v>178319.3128803212</v>
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26756,22 +26758,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
@@ -26793,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26808,25 +26810,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028892</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>134.4655350174239</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35738,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,19 +37393,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37859,7 +37861,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784180.4057267142</v>
+        <v>715887.5092847088</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554237</v>
+        <v>335138.4509359649</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10900007.06587737</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8121653.028417467</v>
+        <v>8145305.651812983</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.80371536444976</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>206.1282486386881</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>99.08452731159424</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>55.77372499889864</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>101.9924748262136</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>144.1361559919115</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>3.833957768458453</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>131.4462122629036</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>295.9408816142891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.02012364305544</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>329.7271827466205</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>290.126288427413</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1864,7 +1864,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>153.8564357574052</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>75.04779512835684</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.92358286280551</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>332.6474817216071</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>126.2798551468628</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>376.5605518815539</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>321.7107513386443</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.50874194611519</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>11.44871811097188</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>78.14109718068178</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>213.6113417665674</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>111.9240296277381</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>385.1561312802865</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1498336210773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>326.9440784012027</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>95.60231281716867</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>85.87170836083675</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>295.5683613306835</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>280.1033070984083</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>91.82580793753523</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.0607915108182</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>49.7569678412159</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>53.06513659042616</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>297.5234243323641</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>89.97874607638022</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>46.5327005489726</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.3178534391397</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="C2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="D2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="E2" t="n">
-        <v>718.7806050553886</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y2" t="n">
-        <v>752.9257720901863</v>
+        <v>978.2509294445696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.5465265007123</v>
+        <v>502.1899125367252</v>
       </c>
       <c r="C3" t="n">
-        <v>304.5465265007123</v>
+        <v>327.7368832555982</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>239.4861551219973</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V3" t="n">
-        <v>755.8468033503452</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W3" t="n">
-        <v>512.3980267062451</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X3" t="n">
-        <v>304.5465265007123</v>
+        <v>878.1655483217471</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.5465265007123</v>
+        <v>670.4052495567933</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>771.468009221761</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>771.468009221761</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>771.468009221761</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>771.468009221761</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>524.4349462307081</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>277.4018832396551</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>771.468009221761</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>771.468009221761</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>771.468009221761</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>771.468009221761</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>771.468009221761</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>667.3767273943765</v>
       </c>
       <c r="C6" t="n">
-        <v>816.3871559026832</v>
+        <v>667.3767273943765</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>667.3767273943765</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>508.1392723889211</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>361.604714415806</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>261.6821236264224</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>875.2282275999094</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>667.3767273943765</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>667.3767273943765</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.5167634983089</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="C8" t="n">
-        <v>710.5167634983089</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424089</v>
+        <v>907.4554057415448</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424089</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424089</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424089</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="V8" t="n">
-        <v>710.5167634983089</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="W8" t="n">
-        <v>710.5167634983089</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="X8" t="n">
-        <v>710.5167634983089</v>
+        <v>698.4535282668854</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.5167634983089</v>
+        <v>552.8614515073789</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>281.6689763282832</v>
       </c>
       <c r="N9" t="n">
-        <v>542.8095319084027</v>
+        <v>542.2785899404332</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972852</v>
+        <v>802.6916540329253</v>
       </c>
       <c r="P9" t="n">
-        <v>964.057155510636</v>
+        <v>994.6930287110238</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635217</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141906</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729566</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093456</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760293</v>
+        <v>615.8309699899996</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299843</v>
+        <v>361.593613261798</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299843</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.553390680693</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C11" t="n">
-        <v>1363.553390680693</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D11" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>1363.553390680693</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y11" t="n">
-        <v>1363.553390680693</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5132,13 +5132,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.416431066817</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.416431066817</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.416431066817</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F14" t="n">
         <v>625.3727659270879</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.416431066817</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2323.103882821189</v>
+        <v>1707.318255429741</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2541.738549849126</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2323.103882821189</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2323.103882821189</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2323.103882821189</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W17" t="n">
-        <v>2323.103882821189</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.103882821189</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y17" t="n">
-        <v>2323.103882821189</v>
+        <v>2093.918095493863</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5597,40 +5597,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9284171545819</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>235.9284171545819</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5694,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>706.9940520217822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>706.9940520217822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>706.9940520217822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>706.9940520217822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>706.9940520217822</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>706.9940520217822</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>417.5768819848216</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>417.5768819848216</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>417.5768819848216</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>936.2491605982757</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C20" t="n">
-        <v>567.286643657864</v>
+        <v>807.9143472167302</v>
       </c>
       <c r="D20" t="n">
-        <v>567.286643657864</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E20" t="n">
-        <v>181.4983910596198</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>181.4983910596198</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>181.4983910596198</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>181.4983910596198</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5758,13 +5758,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5785,19 +5785,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982757</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y20" t="n">
-        <v>936.2491605982757</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="21">
@@ -5813,22 +5813,22 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>53.94298182036445</v>
@@ -5855,7 +5855,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073963</v>
@@ -5946,16 +5946,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1589.347031634718</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C23" t="n">
-        <v>1589.347031634718</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>1231.081333027968</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>845.2930804297234</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>434.3071756401159</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.086203674652</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.94687169884</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6089,22 +6089,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1760.906005007191</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C26" t="n">
-        <v>1760.906005007191</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2520.971603332393</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X26" t="n">
-        <v>2147.505845071313</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y26" t="n">
-        <v>2147.505845071313</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="27">
@@ -6305,10 +6305,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>670.8219208598711</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.69838933464726</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036446</v>
@@ -6423,13 +6423,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084171</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y28" t="n">
-        <v>279.346854164887</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1139.146815977588</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C29" t="n">
-        <v>770.1842990371763</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D29" t="n">
-        <v>770.1842990371763</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
-        <v>770.1842990371763</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>770.1842990371763</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6469,46 +6469,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X29" t="n">
-        <v>1915.885988017521</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y29" t="n">
-        <v>1525.74665604171</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6563,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2092.477155601806</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="C32" t="n">
-        <v>1723.514638661395</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="D32" t="n">
-        <v>1365.248940054644</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E32" t="n">
-        <v>979.4606874563999</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F32" t="n">
-        <v>568.4747826667924</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>150.5109745649793</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W32" t="n">
-        <v>2465.942913862886</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.477155601806</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y32" t="n">
-        <v>2092.477155601806</v>
+        <v>1250.638474227115</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2515.500626187983</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C34" t="n">
-        <v>2346.564443260076</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D34" t="n">
-        <v>2196.44780384774</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E34" t="n">
-        <v>2048.534710265347</v>
+        <v>140.682081174745</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>140.682081174745</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018223</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1208.982837814967</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082163</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>923.9266662611117</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>923.9266662611117</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>505.9628581592985</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2359.18776811598</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1985.7220098549</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.582677879089</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>304.44469573888</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>146.6963231714101</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036446</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005476</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2517.816571739809</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2299.181904711872</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245972</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>285.8510101265798</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>285.8510101265798</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1494.154169929768</v>
+        <v>1273.280804219766</v>
       </c>
       <c r="C41" t="n">
-        <v>1125.191652989356</v>
+        <v>904.3182872793539</v>
       </c>
       <c r="D41" t="n">
-        <v>766.9259543826058</v>
+        <v>904.3182872793539</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>518.5300346811096</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>107.544129891502</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V41" t="n">
-        <v>2147.451536646714</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W41" t="n">
-        <v>1794.6828813766</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X41" t="n">
-        <v>1494.154169929768</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y41" t="n">
-        <v>1494.154169929768</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>190.4871285526041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>190.4871285526041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>190.4871285526041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>190.4871285526041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2376.483006693534</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2066.718496146436</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018223</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120206</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976676</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>362.2743407998537</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>351.4290252218879</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996773</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236954</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>192.5268253278641</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,7 +9245,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>348.126654707812</v>
+        <v>166.5195154085677</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>26.67233851073721</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>106.6884578918832</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,25 +22746,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>115.0560776587299</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>195.5707463650928</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>149.702508334706</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>149.2371023278295</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.2884486374761</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>242.1017826641421</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>247.8610253924612</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>74.32677294057385</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296162</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>53.30008710312387</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>382.2178150129981</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>16.63754732114117</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>52.2031873256413</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.55927705156634</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>311.1901435276968</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.199167092108798</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,7 +23946,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>22.03555989907591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>25.65146109799848</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.80735538553398</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>37.22361813924107</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>64.52718731740924</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>122.66214689568</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>343.2343235097111</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>271.0998715367313</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.9289676594879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.973311585527426</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>270.8098120357425</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>28.62803874050849</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24894,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>55.78976326227792</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>228.3204599471885</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>81.43809389821416</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>28.35441143367365</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>69.13766161900475</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>43.13981385480299</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>51.35492129815331</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>85.20865395112233</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853699</v>
@@ -25599,22 +25599,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>360.7190334303688</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25687,16 +25687,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>72.20767634610496</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>44.98687571595801</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>204.6914669593167</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457060.9393513079</v>
+        <v>460139.1927209571</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457060.9393513079</v>
+        <v>460139.1927209569</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457060.9393513078</v>
+        <v>476112.7944668498</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123612</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783970.2356123612</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783970.2356123613</v>
+        <v>783970.2356123615</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>783970.2356123615</v>
+        <v>783970.2356123613</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26331,16 +26331,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="K2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="K2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753529</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26496,7 +26496,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26505,10 +26505,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4728.818284657777</v>
+        <v>-20936.67437322749</v>
       </c>
       <c r="C6" t="n">
-        <v>76040.61324689005</v>
+        <v>64562.10422798156</v>
       </c>
       <c r="D6" t="n">
-        <v>76040.61324688999</v>
+        <v>46022.68383244494</v>
       </c>
       <c r="E6" t="n">
-        <v>-254526.861162675</v>
+        <v>-235469.5385490725</v>
       </c>
       <c r="F6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.899134502</v>
       </c>
       <c r="G6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="H6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.8991345021</v>
       </c>
       <c r="I6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.8991345019</v>
       </c>
       <c r="J6" t="n">
-        <v>115259.3702812149</v>
+        <v>108262.5275886033</v>
       </c>
       <c r="K6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="L6" t="n">
-        <v>178319.3128803211</v>
+        <v>167523.3360156546</v>
       </c>
       <c r="M6" t="n">
-        <v>70345.95220626303</v>
+        <v>69816.78144386686</v>
       </c>
       <c r="N6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="O6" t="n">
-        <v>178319.3128803211</v>
+        <v>172250.899134502</v>
       </c>
       <c r="P6" t="n">
-        <v>178319.3128803212</v>
+        <v>172250.899134502</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.339519793547</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>354.7302815302973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>222.1425621546524</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>222.1425621546524</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036207</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>58.86374454105316</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,10 +35737,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060965</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36913,7 +36913,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338903</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37393,7 +37393,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338903</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
         <v>297.223041434342</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
